--- a/biology/Botanique/Gonyaulacaceae/Gonyaulacaceae.xlsx
+++ b/biology/Botanique/Gonyaulacaceae/Gonyaulacaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Gonyaulacaceae est une famille d’algues dinophycées de l’ordre des Gonyaulacales.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Gonyaulax, dérivé du grec γόνυ / góny, « genou ; », et  αὖλαξ / aulax, sillon, 
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des genres et sous-familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (10 mars 2019)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (10 mars 2019) :
 Acanthogonyaulax (C.A.Kofoid) H.W.Graham
 Amiculosphaera R.Harland
 Amylax A.Meunier
@@ -583,7 +599,7 @@
 Stanfordella Helenes, J. &amp; Lucas-Clark, J.
 Steiniella Schütt
 Unipontidinium Wrenn
-Selon Catalogue of Life                                   (10 mars 2019)[2] :
+Selon Catalogue of Life                                   (10 mars 2019) :
 Acanthogonyaulax
 Achilleodinium
 Achomosphaera
@@ -767,7 +783,7 @@
 Wigginsiella
 Xenicodinium
 Yalkalpodinium
-Selon ITIS      (10 mars 2019)[3] :
+Selon ITIS      (10 mars 2019) :
 Acanthogonyaulax (Kof.) H. W. Graham
 Amphidoma Stein, 1883
 Amylax Meunier
@@ -777,14 +793,14 @@
 Protoceratium Bergh, 1881
 Schuettiella Balech, 1988
 Spiraulax Kof.
-Selon NCBI  (10 mars 2019)[4] :
+Selon NCBI  (10 mars 2019) :
 Adenoides
 Alexandrium Halim, 1960
 Amylax
 Dapsilidinium
 Gonyaulax Diesing, 1866
 Protoceratium
-Selon Paleobiology Database                   (10 mars 2019)[5] :
+Selon Paleobiology Database                   (10 mars 2019) :
 Achilleodinium
 Achomosphaera
 Avellodinium
@@ -850,7 +866,7 @@
 Wanaea
 Wilsonisphaera
 Yalkalpodinium
-Selon World Register of Marine Species                               (10 mars 2019)[6] :
+Selon World Register of Marine Species                               (10 mars 2019) :
 sous-famille des Gonyaulacoideae
 Acanthogonyaulax (Kofoid) Graham, 1942
 Amiculosphaera R.Harland, 1979
@@ -861,7 +877,7 @@
 Protoceratium Bergh, 1881
 Stanfordella Helenes, J. &amp; Lucas-Clark, J., 1997 †
 Thompsodinium Bourrelly, 1970
-Selon World Register of Marine Species                               (10 mars 2019)[6] :
+Selon World Register of Marine Species                               (10 mars 2019) :
 Acanthogonyaulax (Kofoid) Graham, 1942
 Amiculosphaera R.Harland, 1979
 Amylax Meunier, 1910
